--- a/reports/corpus_1-unigram_bigram-fold-3.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,24 +446,24 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDP</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CON</t>
@@ -471,150 +471,80 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -627,115 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7990654205607477</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8070175438596491</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9538461538461539</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.4292929292929293</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.4904214559386973</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.9253731343283582</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3762376237623762</v>
+        <v>0.7325102880658436</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.8263157894736842</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.4052287581699346</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7461193515005174</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.6538122338093089</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8513513513513513</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.4032258064516129</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0958904109589041</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.5963391136801541</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.4475032469875138</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.8632127550566058</v>
+        <v>0.8542699105651863</v>
       </c>
     </row>
     <row r="3">
@@ -745,115 +633,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9553072625698324</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9787234042553191</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0.9438202247191011</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.9841269841269841</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1724845995893224</v>
-      </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9691358024691358</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.8815165876777251</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.7461193515005174</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>0.8452002455337411</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.9615384615384616</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.5963391136801541</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.7028458306510829</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.5963391136801541</v>
+        <v>0.7461193515005174</v>
       </c>
     </row>
     <row r="4">
@@ -863,115 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9743589743589743</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9949748743718593</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8702290076335879</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9718875502008032</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.96875</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.9333333333333335</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.5802047781569966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.9908256880733944</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8</v>
+        <v>0.611531741409435</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8125000000000001</v>
+        <v>0.6580976863753213</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2942206654991243</v>
+        <v>0.9538461538461538</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5467625899280576</v>
+        <v>0.8072562358276644</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8920454545454546</v>
       </c>
       <c r="T4" t="n">
-        <v>0.878048780487805</v>
+        <v>0.555223880597015</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7461193515005174</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7080308733532674</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9197080291970803</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.5681818181818181</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.6153846153846153</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.1728395061728395</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.5963391136801541</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.4965247881052196</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.5691985617392552</v>
+        <v>0.7424793643843635</v>
       </c>
     </row>
     <row r="5">
@@ -981,115 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>179</v>
+      </c>
+      <c r="I5" t="n">
+        <v>121</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>47</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>63</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>1185</v>
       </c>
       <c r="P5" t="n">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="Q5" t="n">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="R5" t="n">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>0.7461193515005174</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>2899</v>
       </c>
       <c r="X5" t="n">
-        <v>63</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.5963391136801541</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1038</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1038</v>
+        <v>2899</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram-fold-3.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-3.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -566,64 +566,64 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7990654205607477</v>
+        <v>0.8785046728971962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9453125</v>
+        <v>0.9609375</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4292929292929293</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="M2" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4904214559386973</v>
+        <v>0.5670498084291188</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7325102880658436</v>
+        <v>0.7818930041152263</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8263157894736842</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4052287581699346</v>
+        <v>0.6318082788671024</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7461193515005174</v>
+        <v>0.8275267333563298</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6538122338093089</v>
+        <v>0.821997446416491</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8542699105651863</v>
+        <v>0.869868534356587</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -642,16 +642,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9553072625698324</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9438202247191011</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.917910447761194</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -672,34 +672,34 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4430379746835443</v>
+        <v>0.576837416481069</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9841269841269841</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="R3" t="n">
-        <v>0.898989898989899</v>
+        <v>0.892018779342723</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9691358024691358</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8815165876777251</v>
+        <v>0.8605341246290801</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7461193515005174</v>
+        <v>0.8275267333563298</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8452002455337411</v>
+        <v>0.8931914306058708</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7461193515005174</v>
+        <v>0.8275267333563298</v>
       </c>
     </row>
     <row r="4">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -718,64 +718,64 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8702290076335879</v>
+        <v>0.9170731707317074</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9718875502008032</v>
+        <v>0.9800796812749004</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9333333333333335</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5802047781569966</v>
+        <v>0.7409638554216867</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9908256880733944</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.611531741409435</v>
+        <v>0.7244755244755244</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6580976863753213</v>
+        <v>0.723716381418093</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9538461538461538</v>
+        <v>0.9776119402985075</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8072562358276644</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.900523560209424</v>
       </c>
       <c r="T4" t="n">
-        <v>0.555223880597015</v>
+        <v>0.7286432160804019</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7461193515005174</v>
+        <v>0.8275267333563298</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7080308733532674</v>
+        <v>0.8472145289003953</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7424793643843635</v>
+        <v>0.8258618972534805</v>
       </c>
     </row>
     <row r="5">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>282</v>
@@ -794,58 +794,58 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I5" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L5" t="n">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="M5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" t="n">
-        <v>1185</v>
+        <v>898</v>
       </c>
       <c r="P5" t="n">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="Q5" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="R5" t="n">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="S5" t="n">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="T5" t="n">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7461193515005174</v>
+        <v>0.8275267333563298</v>
       </c>
       <c r="W5" t="n">
         <v>2899</v>
